--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_7_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_7_sawtooth_0_.xlsx
@@ -599,51 +599,51 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[0.015336261084144098, 14.790434718881862]</t>
+          <t>[0.030424206341297833, 14.775346773624708]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.04954610289928651</v>
+        <v>0.04910122339608458</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04954610289928651</v>
+        <v>0.04910122339608458</v>
       </c>
       <c r="P2" t="n">
         <v>-1.333368653775848</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-2.7044741562434655, 0.037736848691769964]</t>
+          <t>[-2.7925268031909276, 0.12578949563923203]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.05636650383658015</v>
+        <v>0.07229865087324039</v>
       </c>
       <c r="S2" t="n">
-        <v>0.05636650383658015</v>
+        <v>0.07229865087324039</v>
       </c>
       <c r="T2" t="n">
         <v>9.516149656247336</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[5.37917687845134, 13.653122434043333]</t>
+          <t>[5.383008004088298, 13.649291308406374]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.088337759726834e-05</v>
+        <v>3.04530778068024e-05</v>
       </c>
       <c r="W2" t="n">
-        <v>3.088337759726834e-05</v>
+        <v>3.04530778068024e-05</v>
       </c>
       <c r="X2" t="n">
         <v>4.82782782782785</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.1366366366366414</v>
+        <v>-0.4554554554554633</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.792292292292341</v>
+        <v>10.11111111111116</v>
       </c>
     </row>
     <row r="3">
@@ -685,51 +685,51 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-0.4676559805609095, 15.417865801180252]</t>
+          <t>[-0.42455168178672764, 15.37476150240607]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.06445777178017309</v>
+        <v>0.06306835207361994</v>
       </c>
       <c r="O3" t="n">
-        <v>0.06445777178017309</v>
+        <v>0.06306835207361994</v>
       </c>
       <c r="P3" t="n">
         <v>-1.044052813805617</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-2.9560531475219274, 0.8679475199106927]</t>
+          <t>[-2.943474197958005, 0.8553685703467702]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.2772654222139921</v>
+        <v>0.2741380081293789</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2772654222139921</v>
+        <v>0.2741380081293789</v>
       </c>
       <c r="T3" t="n">
         <v>10.58557910765357</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[6.300587126541378, 14.870571088765752]</t>
+          <t>[6.303862568273926, 14.867295647033204]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>9.976912681786132e-06</v>
+        <v>9.851388260262439e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>9.976912681786132e-06</v>
+        <v>9.851388260262439e-06</v>
       </c>
       <c r="X3" t="n">
         <v>3.780280280280301</v>
       </c>
       <c r="Y3" t="n">
-        <v>-3.142642642642655</v>
+        <v>-3.097097097097111</v>
       </c>
       <c r="Z3" t="n">
-        <v>10.70320320320326</v>
+        <v>10.65765765765772</v>
       </c>
     </row>
     <row r="4">
@@ -771,51 +771,51 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-0.2017576688909486, 13.954664593642343]</t>
+          <t>[-0.20841625806219177, 13.961323182813587]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.05660578391776117</v>
+        <v>0.05682924728112781</v>
       </c>
       <c r="O4" t="n">
-        <v>0.05660578391776117</v>
+        <v>0.05682924728112781</v>
       </c>
       <c r="P4" t="n">
         <v>-0.9434212172942322</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-2.9686320970858504, 1.081789662497386]</t>
+          <t>[-2.7170531058073886, 0.8302106712189241]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.3531263409100478</v>
+        <v>0.2897327401351861</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3531263409100478</v>
+        <v>0.2897327401351861</v>
       </c>
       <c r="T4" t="n">
         <v>8.803033299323126</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[5.014459426732556, 12.591607171913694]</t>
+          <t>[5.01424413443368, 12.591822464212571]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.64871297022129e-05</v>
+        <v>2.651021426181011e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>2.64871297022129e-05</v>
+        <v>2.651021426181011e-05</v>
       </c>
       <c r="X4" t="n">
         <v>3.415915915915935</v>
       </c>
       <c r="Y4" t="n">
-        <v>-3.916916916916934</v>
+        <v>-3.00600600600602</v>
       </c>
       <c r="Z4" t="n">
-        <v>10.7487487487488</v>
+        <v>9.83783783783789</v>
       </c>
     </row>
     <row r="5">
@@ -857,51 +857,51 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-1.475077332155525, 12.999704345747702]</t>
+          <t>[-1.1367741067723944, 12.661401120364571]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.1157984843231634</v>
+        <v>0.09945066554806026</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1157984843231634</v>
+        <v>0.09945066554806026</v>
       </c>
       <c r="P5" t="n">
         <v>-0.3773684869176925</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-2.3082372449798862, 1.5535002711445012]</t>
+          <t>[-2.295658295415964, 1.540921321580579]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.6957089093079847</v>
+        <v>0.6938174732721123</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6957089093079847</v>
+        <v>0.6938174732721123</v>
       </c>
       <c r="T5" t="n">
         <v>8.170299075449147</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[4.326450734129317, 12.014147416768978]</t>
+          <t>[4.329777940187238, 12.010820210711056]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9.620949786315336e-05</v>
+        <v>9.507838126787682e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>9.620949786315336e-05</v>
+        <v>9.507838126787682e-05</v>
       </c>
       <c r="X5" t="n">
         <v>1.366366366366371</v>
       </c>
       <c r="Y5" t="n">
-        <v>-5.624874874874901</v>
+        <v>-5.579329329329358</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.357607607607644</v>
+        <v>8.3120620620621</v>
       </c>
     </row>
     <row r="6">
@@ -943,51 +943,51 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-2.1613449837703644, 12.667682456422137]</t>
+          <t>[-1.889325657931165, 12.395663130582937]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.1604855163835817</v>
+        <v>0.1454861762371933</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1604855163835817</v>
+        <v>0.1454861762371933</v>
       </c>
       <c r="P6" t="n">
         <v>-0.006289474781961957</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-2.5032109632206963, 2.4906320136567723]</t>
+          <t>[-2.9749215718678124, 2.9623426223038885]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.9959745275290299</v>
+        <v>0.9966141639383523</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9959745275290299</v>
+        <v>0.9966141639383523</v>
       </c>
       <c r="T6" t="n">
         <v>9.083098209818033</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[4.792802382978129, 13.373394036657936]</t>
+          <t>[4.791408376435093, 13.374788043200972]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>0.0001015545322828881</v>
+        <v>0.0001020033447041158</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0001015545322828881</v>
+        <v>0.0001020033447041158</v>
       </c>
       <c r="X6" t="n">
         <v>0.02277277277277179</v>
       </c>
       <c r="Y6" t="n">
-        <v>-9.018018018018065</v>
+        <v>-10.72597597597603</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.063563563563608</v>
+        <v>10.77152152152158</v>
       </c>
     </row>
     <row r="7">
@@ -1029,51 +1029,51 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.3879653447031348, 12.795526442266857]</t>
+          <t>[-1.2881337877825434, 12.695694885346265]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1122390408595015</v>
+        <v>0.1073447283787701</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1122390408595015</v>
+        <v>0.1073447283787701</v>
       </c>
       <c r="P7" t="n">
         <v>0.3207632138800394</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.534631846798618, 2.1761582745586967]</t>
+          <t>[-1.547210796362541, 2.1887372241226197]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.7293130063571738</v>
+        <v>0.731062589904528</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7293130063571738</v>
+        <v>0.731062589904528</v>
       </c>
       <c r="T7" t="n">
         <v>8.147837740357081</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[4.288540586996783, 12.00713489371738]</t>
+          <t>[4.288891337900383, 12.00678414281378]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>0.0001054707297190038</v>
+        <v>0.0001053411395197656</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0001054707297190038</v>
+        <v>0.0001053411395197656</v>
       </c>
       <c r="X7" t="n">
         <v>21.5885885885887</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.8706206206207</v>
+        <v>14.82507507507515</v>
       </c>
       <c r="Z7" t="n">
-        <v>28.3065565565567</v>
+        <v>28.35210210210225</v>
       </c>
     </row>
     <row r="8">
@@ -1115,51 +1115,51 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-1.5633905156553407, 14.723051161252572]</t>
+          <t>[-1.4989631982729534, 14.658623843870185]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.110630245695821</v>
+        <v>0.1078945018456265</v>
       </c>
       <c r="O8" t="n">
-        <v>0.110630245695821</v>
+        <v>0.1078945018456265</v>
       </c>
       <c r="P8" t="n">
         <v>0.5849211547224238</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.7862108380770803, 2.956053147521928]</t>
+          <t>[-2.5535267614763884, 3.723369070921236]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.6217151121966127</v>
+        <v>0.709145957153668</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6217151121966127</v>
+        <v>0.709145957153668</v>
       </c>
       <c r="T8" t="n">
         <v>9.758344351469759</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[5.584484926840199, 13.93220377609932]</t>
+          <t>[5.580333430068341, 13.936355272871177]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.4085700455867e-05</v>
+        <v>2.445830853226028e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>2.4085700455867e-05</v>
+        <v>2.445830853226028e-05</v>
       </c>
       <c r="X8" t="n">
         <v>20.63213213213224</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.04679679679686</v>
+        <v>9.268518518518565</v>
       </c>
       <c r="Z8" t="n">
-        <v>29.21746746746762</v>
+        <v>31.99574574574591</v>
       </c>
     </row>
     <row r="9">
@@ -1201,51 +1201,51 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[0.05683364371629729, 15.243845096142048]</t>
+          <t>[0.3396345114172714, 14.961044228441073]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.04838029433168978</v>
+        <v>0.04066259261658711</v>
       </c>
       <c r="O9" t="n">
-        <v>0.04838029433168978</v>
+        <v>0.04066259261658711</v>
       </c>
       <c r="P9" t="n">
         <v>0.7107106503616549</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.69184222601577, 2.11326352673908]</t>
+          <t>[-0.5912106295043857, 2.0126319302276956]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.3128999701665693</v>
+        <v>0.277403426954332</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3128999701665693</v>
+        <v>0.277403426954332</v>
       </c>
       <c r="T9" t="n">
         <v>9.415001225094793</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[5.532469888278641, 13.297532561910945]</t>
+          <t>[5.532314164306788, 13.297688285882797]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.351647930447619e-05</v>
+        <v>1.352525110531744e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>1.351647930447619e-05</v>
+        <v>1.352525110531744e-05</v>
       </c>
       <c r="X9" t="n">
         <v>20.17667667667678</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.09834834834843</v>
+        <v>15.46271271271279</v>
       </c>
       <c r="Z9" t="n">
-        <v>25.25500500500513</v>
+        <v>24.89064064064077</v>
       </c>
     </row>
     <row r="10">
@@ -1287,51 +1287,51 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-1.0511617014011456, 14.595147834937176]</t>
+          <t>[-1.145859456939224, 14.689845590475255]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.08807946277130019</v>
+        <v>0.09182323194601105</v>
       </c>
       <c r="O10" t="n">
-        <v>0.08807946277130019</v>
+        <v>0.09182323194601105</v>
       </c>
       <c r="P10" t="n">
         <v>1.201289683354656</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.5975001042863468, 3.000079470995658]</t>
+          <t>[-0.5346053564667317, 2.937184723176043]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.1853383113005611</v>
+        <v>0.1702180043819306</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1853383113005611</v>
+        <v>0.1702180043819306</v>
       </c>
       <c r="T10" t="n">
         <v>9.368907879457289</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[5.167915533038833, 13.569900225875745]</t>
+          <t>[5.1743240941912845, 13.563491664723294]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>4.888382513801304e-05</v>
+        <v>4.780945606563947e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>4.888382513801304e-05</v>
+        <v>4.780945606563947e-05</v>
       </c>
       <c r="X10" t="n">
         <v>19.63787787787817</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.68684684684704</v>
+        <v>12.92988988989008</v>
       </c>
       <c r="Z10" t="n">
-        <v>26.5889089089093</v>
+        <v>26.34586586586626</v>
       </c>
     </row>
     <row r="11">
@@ -1373,51 +1373,51 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-1.0630091080997461, 14.953201509758781]</t>
+          <t>[-0.8558811548603718, 14.746073556519406]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.08750397742145277</v>
+        <v>0.07967520619979696</v>
       </c>
       <c r="O11" t="n">
-        <v>0.08750397742145277</v>
+        <v>0.07967520619979696</v>
       </c>
       <c r="P11" t="n">
         <v>1.125815985971117</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.685552751233808, 2.937184723176043]</t>
+          <t>[-0.7107106503616549, 2.96234262230389]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.217102979467908</v>
+        <v>0.2233606940443515</v>
       </c>
       <c r="S11" t="n">
-        <v>0.217102979467908</v>
+        <v>0.2233606940443515</v>
       </c>
       <c r="T11" t="n">
         <v>9.521125492976182</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[5.282265802449453, 13.759985183502911]</t>
+          <t>[5.284196591920256, 13.758054394032108]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>4.403948873599184e-05</v>
+        <v>4.37458798778767e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>4.403948873599184e-05</v>
+        <v>4.37458798778767e-05</v>
       </c>
       <c r="X11" t="n">
         <v>19.92952952952982</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.92988988989008</v>
+        <v>12.83267267267286</v>
       </c>
       <c r="Z11" t="n">
-        <v>26.92916916916956</v>
+        <v>27.02638638638678</v>
       </c>
     </row>
     <row r="12">
@@ -1459,51 +1459,51 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[0.006239853008715102, 14.13826343287246]</t>
+          <t>[-0.39936005695823873, 14.543863342839414]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.04980648130051746</v>
+        <v>0.0629899248479957</v>
       </c>
       <c r="O12" t="n">
-        <v>0.04980648130051746</v>
+        <v>0.0629899248479957</v>
       </c>
       <c r="P12" t="n">
         <v>0.7610264486173479</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.289368820634003, 3.811421717868699]</t>
+          <t>[-2.0503687789194647, 3.5724216761541605]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.6177748108618637</v>
+        <v>0.5883049860406935</v>
       </c>
       <c r="S12" t="n">
-        <v>0.6177748108618637</v>
+        <v>0.5883049860406935</v>
       </c>
       <c r="T12" t="n">
         <v>8.648496348541039</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[4.766355950251599, 12.53063674683048]</t>
+          <t>[4.765801078815519, 12.53119161826656]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>4.965488613883906e-05</v>
+        <v>4.975804018858554e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>4.965488613883906e-05</v>
+        <v>4.975804018858554e-05</v>
       </c>
       <c r="X12" t="n">
         <v>21.33917917917949</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.551591591591727</v>
+        <v>10.4751551551553</v>
       </c>
       <c r="Z12" t="n">
-        <v>33.12676676676725</v>
+        <v>32.20320320320367</v>
       </c>
     </row>
     <row r="13">
@@ -1545,51 +1545,51 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[0.05990135313569667, 14.486132477816895]</t>
+          <t>[-0.19164733717850524, 14.737681168131097]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.04820563901364272</v>
+        <v>0.05591792325550538</v>
       </c>
       <c r="O13" t="n">
-        <v>0.04820563901364272</v>
+        <v>0.05591792325550538</v>
       </c>
       <c r="P13" t="n">
         <v>0.6855527512338089</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-1.1195265111891555, 2.4906320136567732]</t>
+          <t>[-1.3333686537758478, 2.7044741562434655]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.4483015044619054</v>
+        <v>0.4975346913099163</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4483015044619054</v>
+        <v>0.4975346913099163</v>
       </c>
       <c r="T13" t="n">
         <v>8.758116020748917</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[4.902861868026877, 12.613370173470956]</t>
+          <t>[4.906548306151884, 12.60968373534595]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>3.724928936743588e-05</v>
+        <v>3.672196195747546e-05</v>
       </c>
       <c r="W13" t="n">
-        <v>3.724928936743588e-05</v>
+        <v>3.672196195747546e-05</v>
       </c>
       <c r="X13" t="n">
         <v>21.63083083083115</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.65549549549571</v>
+        <v>13.82914914914935</v>
       </c>
       <c r="Z13" t="n">
-        <v>28.60616616616658</v>
+        <v>29.43251251251294</v>
       </c>
     </row>
     <row r="14">
@@ -1631,51 +1631,51 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[0.08601871985736231, 14.89214586809721]</t>
+          <t>[0.2255067007601692, 14.752657887194403]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.04750516446099007</v>
+        <v>0.04357524625438658</v>
       </c>
       <c r="O14" t="n">
-        <v>0.04750516446099007</v>
+        <v>0.04357524625438658</v>
       </c>
       <c r="P14" t="n">
         <v>0.6352369529781168</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.5786316799404627, 1.8491055858966963]</t>
+          <t>[-0.8679475199106932, 2.1384214258669267]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.2975037175671484</v>
+        <v>0.3991936554758577</v>
       </c>
       <c r="S14" t="n">
-        <v>0.2975037175671484</v>
+        <v>0.3991936554758577</v>
       </c>
       <c r="T14" t="n">
         <v>8.887485933108557</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[5.021955276067564, 12.753016590149551]</t>
+          <t>[5.0212774167757255, 12.75369444944139]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>3.110885162338484e-05</v>
+        <v>3.1191459912705e-05</v>
       </c>
       <c r="W14" t="n">
-        <v>3.110885162338484e-05</v>
+        <v>3.1191459912705e-05</v>
       </c>
       <c r="X14" t="n">
         <v>21.82526526526559</v>
       </c>
       <c r="Y14" t="n">
-        <v>17.13453453453478</v>
+        <v>16.01653653653677</v>
       </c>
       <c r="Z14" t="n">
-        <v>26.51599599599639</v>
+        <v>27.6339939939944</v>
       </c>
     </row>
     <row r="15">
@@ -1717,51 +1717,51 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-0.14493143501117878, 15.438920071006274]</t>
+          <t>[0.08636545017252928, 15.207623185822566]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.05423003861375797</v>
+        <v>0.047546395746487</v>
       </c>
       <c r="O15" t="n">
-        <v>0.05423003861375797</v>
+        <v>0.047546395746487</v>
       </c>
       <c r="P15" t="n">
         <v>0.3333421634439624</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-1.1321054607530785, 1.7987897876410033]</t>
+          <t>[-1.0943686120613094, 1.7610529389492342]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.6490540136866265</v>
+        <v>0.6404453457638981</v>
       </c>
       <c r="S15" t="n">
-        <v>0.6490540136866265</v>
+        <v>0.6404453457638981</v>
       </c>
       <c r="T15" t="n">
         <v>9.961915704837946</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[5.781909926740754, 14.141921482935137]</t>
+          <t>[5.783517337109636, 14.140314072566255]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1.784482261291132e-05</v>
+        <v>1.773648006309081e-05</v>
       </c>
       <c r="W15" t="n">
-        <v>1.784482261291132e-05</v>
+        <v>1.773648006309081e-05</v>
       </c>
       <c r="X15" t="n">
         <v>22.99187187187221</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.32896896896922</v>
+        <v>17.47479479479505</v>
       </c>
       <c r="Z15" t="n">
-        <v>28.65477477477519</v>
+        <v>28.50894894894937</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_7_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_7_sawtooth_0_.xlsx
@@ -599,51 +599,51 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[0.030424206341297833, 14.775346773624708]</t>
+          <t>[-0.0888486212189008, 14.894619601184907]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.04910122339608458</v>
+        <v>0.05266269711117411</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04910122339608458</v>
+        <v>0.05266269711117411</v>
       </c>
       <c r="P2" t="n">
         <v>-1.333368653775848</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-2.7925268031909276, 0.12578949563923203]</t>
+          <t>[-2.767368904063081, 0.10063159651138553]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.07229865087324039</v>
+        <v>0.06760653824306972</v>
       </c>
       <c r="S2" t="n">
-        <v>0.07229865087324039</v>
+        <v>0.06760653824306972</v>
       </c>
       <c r="T2" t="n">
         <v>9.516149656247336</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[5.383008004088298, 13.649291308406374]</t>
+          <t>[5.381068320389746, 13.651230992104926]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.04530778068024e-05</v>
+        <v>3.067029586478753e-05</v>
       </c>
       <c r="W2" t="n">
-        <v>3.04530778068024e-05</v>
+        <v>3.067029586478753e-05</v>
       </c>
       <c r="X2" t="n">
         <v>4.82782782782785</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.4554554554554633</v>
+        <v>-0.3643643643643708</v>
       </c>
       <c r="Z2" t="n">
-        <v>10.11111111111116</v>
+        <v>10.02002002002007</v>
       </c>
     </row>
     <row r="3">
@@ -685,14 +685,14 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-0.42455168178672764, 15.37476150240607]</t>
+          <t>[-0.30904392301025396, 15.259253743629596]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.06306835207361994</v>
+        <v>0.05939919573807173</v>
       </c>
       <c r="O3" t="n">
-        <v>0.06306835207361994</v>
+        <v>0.05939919573807173</v>
       </c>
       <c r="P3" t="n">
         <v>-1.044052813805617</v>
@@ -713,14 +713,14 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[6.303862568273926, 14.867295647033204]</t>
+          <t>[6.29869062755295, 14.87246758775418]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>9.851388260262439e-06</v>
+        <v>1.005022300426539e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>9.851388260262439e-06</v>
+        <v>1.005022300426539e-05</v>
       </c>
       <c r="X3" t="n">
         <v>3.780280280280301</v>
@@ -771,51 +771,51 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-0.20841625806219177, 13.961323182813587]</t>
+          <t>[-0.494651195449606, 14.247558120201]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.05682924728112781</v>
+        <v>0.06673855937182105</v>
       </c>
       <c r="O4" t="n">
-        <v>0.05682924728112781</v>
+        <v>0.06673855937182105</v>
       </c>
       <c r="P4" t="n">
         <v>-0.9434212172942322</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-2.7170531058073886, 0.8302106712189241]</t>
+          <t>[-2.9308952483940813, 1.0440528138056169]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.2897327401351861</v>
+        <v>0.3441492555804599</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2897327401351861</v>
+        <v>0.3441492555804599</v>
       </c>
       <c r="T4" t="n">
         <v>8.803033299323126</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[5.01424413443368, 12.591822464212571]</t>
+          <t>[5.012497978807813, 12.593568619838438]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.651021426181011e-05</v>
+        <v>2.669807849797756e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>2.651021426181011e-05</v>
+        <v>2.669807849797756e-05</v>
       </c>
       <c r="X4" t="n">
         <v>3.415915915915935</v>
       </c>
       <c r="Y4" t="n">
-        <v>-3.00600600600602</v>
+        <v>-3.780280280280299</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.83783783783789</v>
+        <v>10.61211211211217</v>
       </c>
     </row>
     <row r="5">
@@ -857,14 +857,14 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-1.1367741067723944, 12.661401120364571]</t>
+          <t>[-1.516182251425949, 13.040809265018126]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.09945066554806026</v>
+        <v>0.1178141854066297</v>
       </c>
       <c r="O5" t="n">
-        <v>0.09945066554806026</v>
+        <v>0.1178141854066297</v>
       </c>
       <c r="P5" t="n">
         <v>-0.3773684869176925</v>
@@ -885,14 +885,14 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[4.329777940187238, 12.010820210711056]</t>
+          <t>[4.331456320793243, 12.009141830105051]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9.507838126787682e-05</v>
+        <v>9.451199640353458e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>9.507838126787682e-05</v>
+        <v>9.451199640353458e-05</v>
       </c>
       <c r="X5" t="n">
         <v>1.366366366366371</v>
@@ -943,51 +943,51 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-1.889325657931165, 12.395663130582937]</t>
+          <t>[-1.9966882502509513, 12.503025722902724]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.1454861762371933</v>
+        <v>0.1514016053920431</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1454861762371933</v>
+        <v>0.1514016053920431</v>
       </c>
       <c r="P6" t="n">
         <v>-0.006289474781961957</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-2.9749215718678124, 2.9623426223038885]</t>
+          <t>[-2.987500521431736, 2.974921571867812]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.9966141639383523</v>
+        <v>0.9966284500783829</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9966141639383523</v>
+        <v>0.9966284500783829</v>
       </c>
       <c r="T6" t="n">
         <v>9.083098209818033</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[4.791408376435093, 13.374788043200972]</t>
+          <t>[4.7935972550186285, 13.372599164617437]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>0.0001020033447041158</v>
+        <v>0.0001012993489750702</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0001020033447041158</v>
+        <v>0.0001012993489750702</v>
       </c>
       <c r="X6" t="n">
         <v>0.02277277277277179</v>
       </c>
       <c r="Y6" t="n">
-        <v>-10.72597597597603</v>
+        <v>-10.77152152152158</v>
       </c>
       <c r="Z6" t="n">
-        <v>10.77152152152158</v>
+        <v>10.81706706706712</v>
       </c>
     </row>
     <row r="7">
@@ -1029,51 +1029,51 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.2881337877825434, 12.695694885346265]</t>
+          <t>[-1.5776979045003579, 12.98525900206408]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1073447283787701</v>
+        <v>0.1216388137747042</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1073447283787701</v>
+        <v>0.1216388137747042</v>
       </c>
       <c r="P7" t="n">
         <v>0.3207632138800394</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.547210796362541, 2.1887372241226197]</t>
+          <t>[-1.522052897234695, 2.1635793249947737]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.731062589904528</v>
+        <v>0.7275410233676558</v>
       </c>
       <c r="S7" t="n">
-        <v>0.731062589904528</v>
+        <v>0.7275410233676558</v>
       </c>
       <c r="T7" t="n">
         <v>8.147837740357081</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[4.288891337900383, 12.00678414281378]</t>
+          <t>[4.2882697051742475, 12.007405775539915]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>0.0001053411395197656</v>
+        <v>0.0001055709012811601</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0001053411395197656</v>
+        <v>0.0001055709012811601</v>
       </c>
       <c r="X7" t="n">
         <v>21.5885885885887</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.82507507507515</v>
+        <v>14.91616616616624</v>
       </c>
       <c r="Z7" t="n">
-        <v>28.35210210210225</v>
+        <v>28.26101101101116</v>
       </c>
     </row>
     <row r="8">
@@ -1115,51 +1115,51 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-1.4989631982729534, 14.658623843870185]</t>
+          <t>[-1.5160988533870619, 14.675759498984293]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.1078945018456265</v>
+        <v>0.1086208955237915</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1078945018456265</v>
+        <v>0.1086208955237915</v>
       </c>
       <c r="P8" t="n">
         <v>0.5849211547224238</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.5535267614763884, 3.723369070921236]</t>
+          <t>[-2.4528951649650033, 3.622737474409851]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.709145957153668</v>
+        <v>0.6999860216911946</v>
       </c>
       <c r="S8" t="n">
-        <v>0.709145957153668</v>
+        <v>0.6999860216911946</v>
       </c>
       <c r="T8" t="n">
         <v>9.758344351469759</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[5.580333430068341, 13.936355272871177]</t>
+          <t>[5.5805801977415825, 13.936108505197936]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.445830853226028e-05</v>
+        <v>2.443602383639387e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>2.445830853226028e-05</v>
+        <v>2.443602383639387e-05</v>
       </c>
       <c r="X8" t="n">
         <v>20.63213213213224</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.268518518518565</v>
+        <v>9.632882882882933</v>
       </c>
       <c r="Z8" t="n">
-        <v>31.99574574574591</v>
+        <v>31.63138138138154</v>
       </c>
     </row>
     <row r="9">
@@ -1201,51 +1201,51 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[0.3396345114172714, 14.961044228441073]</t>
+          <t>[-0.02844363653616, 15.329122376394505]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.04066259261658711</v>
+        <v>0.05081885376572548</v>
       </c>
       <c r="O9" t="n">
-        <v>0.04066259261658711</v>
+        <v>0.05081885376572548</v>
       </c>
       <c r="P9" t="n">
         <v>0.7107106503616549</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.5912106295043857, 2.0126319302276956]</t>
+          <t>[-0.9308422677303092, 2.352263568453619]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.277403426954332</v>
+        <v>0.387833818502263</v>
       </c>
       <c r="S9" t="n">
-        <v>0.277403426954332</v>
+        <v>0.387833818502263</v>
       </c>
       <c r="T9" t="n">
         <v>9.415001225094793</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[5.532314164306788, 13.297688285882797]</t>
+          <t>[5.536071593920557, 13.293930856269029]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.352525110531744e-05</v>
+        <v>1.331496143253119e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>1.352525110531744e-05</v>
+        <v>1.331496143253119e-05</v>
       </c>
       <c r="X9" t="n">
         <v>20.17667667667678</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.46271271271279</v>
+        <v>14.23298298298306</v>
       </c>
       <c r="Z9" t="n">
-        <v>24.89064064064077</v>
+        <v>26.12037037037051</v>
       </c>
     </row>
     <row r="10">
@@ -1287,51 +1287,51 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-1.145859456939224, 14.689845590475255]</t>
+          <t>[-0.9571205564109704, 14.501106689947001]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.09182323194601105</v>
+        <v>0.08440227287856494</v>
       </c>
       <c r="O10" t="n">
-        <v>0.09182323194601105</v>
+        <v>0.08440227287856494</v>
       </c>
       <c r="P10" t="n">
         <v>1.201289683354656</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.5346053564667317, 2.937184723176043]</t>
+          <t>[-0.5849211547224247, 2.987500521431736]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.1702180043819306</v>
+        <v>0.1823216551253821</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1702180043819306</v>
+        <v>0.1823216551253821</v>
       </c>
       <c r="T10" t="n">
         <v>9.368907879457289</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[5.1743240941912845, 13.563491664723294]</t>
+          <t>[5.1672278964521805, 13.570587862462398]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>4.780945606563947e-05</v>
+        <v>4.900030224663787e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>4.780945606563947e-05</v>
+        <v>4.900030224663787e-05</v>
       </c>
       <c r="X10" t="n">
         <v>19.63787787787817</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.92988988989008</v>
+        <v>12.73545545545564</v>
       </c>
       <c r="Z10" t="n">
-        <v>26.34586586586626</v>
+        <v>26.54030030030069</v>
       </c>
     </row>
     <row r="11">
@@ -1373,51 +1373,51 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-0.8558811548603718, 14.746073556519406]</t>
+          <t>[-1.2987048533199088, 15.188897254978944]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.07967520619979696</v>
+        <v>0.09664075254286431</v>
       </c>
       <c r="O11" t="n">
-        <v>0.07967520619979696</v>
+        <v>0.09664075254286431</v>
       </c>
       <c r="P11" t="n">
         <v>1.125815985971117</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.7107106503616549, 2.96234262230389]</t>
+          <t>[-0.5723422051584999, 2.8239741771007347]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.2233606940443515</v>
+        <v>0.18850159709992</v>
       </c>
       <c r="S11" t="n">
-        <v>0.2233606940443515</v>
+        <v>0.18850159709992</v>
       </c>
       <c r="T11" t="n">
         <v>9.521125492976182</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[5.284196591920256, 13.758054394032108]</t>
+          <t>[5.282262742829255, 13.759988243123109]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>4.37458798778767e-05</v>
+        <v>4.403995531809812e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>4.37458798778767e-05</v>
+        <v>4.403995531809812e-05</v>
       </c>
       <c r="X11" t="n">
         <v>19.92952952952982</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.83267267267286</v>
+        <v>13.36736736736756</v>
       </c>
       <c r="Z11" t="n">
-        <v>27.02638638638678</v>
+        <v>26.49169169169208</v>
       </c>
     </row>
     <row r="12">
@@ -1459,51 +1459,51 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-0.39936005695823873, 14.543863342839414]</t>
+          <t>[-0.5224874894577436, 14.666990775338919]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.0629899248479957</v>
+        <v>0.06721517095958096</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0629899248479957</v>
+        <v>0.06721517095958096</v>
       </c>
       <c r="P12" t="n">
         <v>0.7610264486173479</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.0503687789194647, 3.5724216761541605]</t>
+          <t>[-2.176158274558696, 3.6982111717933916]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.5883049860406935</v>
+        <v>0.6043303069174488</v>
       </c>
       <c r="S12" t="n">
-        <v>0.5883049860406935</v>
+        <v>0.6043303069174488</v>
       </c>
       <c r="T12" t="n">
         <v>8.648496348541039</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[4.765801078815519, 12.53119161826656]</t>
+          <t>[4.76369902363621, 12.533293673445868]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>4.975804018858554e-05</v>
+        <v>5.015046218548314e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>4.975804018858554e-05</v>
+        <v>5.015046218548314e-05</v>
       </c>
       <c r="X12" t="n">
         <v>21.33917917917949</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.4751551551553</v>
+        <v>9.989069069069208</v>
       </c>
       <c r="Z12" t="n">
-        <v>32.20320320320367</v>
+        <v>32.68928928928977</v>
       </c>
     </row>
     <row r="13">
@@ -1545,51 +1545,51 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-0.19164733717850524, 14.737681168131097]</t>
+          <t>[-0.13327195993442587, 14.679305790887017]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.05591792325550538</v>
+        <v>0.05408755639484841</v>
       </c>
       <c r="O13" t="n">
-        <v>0.05591792325550538</v>
+        <v>0.05408755639484841</v>
       </c>
       <c r="P13" t="n">
         <v>0.6855527512338089</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-1.3333686537758478, 2.7044741562434655]</t>
+          <t>[-1.2830528555201557, 2.6541583579877734]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.4975346913099163</v>
+        <v>0.4866669149994194</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4975346913099163</v>
+        <v>0.4866669149994194</v>
       </c>
       <c r="T13" t="n">
         <v>8.758116020748917</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[4.906548306151884, 12.60968373534595]</t>
+          <t>[4.902652511959469, 12.613579529538363]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>3.672196195747546e-05</v>
+        <v>3.727942806763807e-05</v>
       </c>
       <c r="W13" t="n">
-        <v>3.672196195747546e-05</v>
+        <v>3.727942806763807e-05</v>
       </c>
       <c r="X13" t="n">
         <v>21.63083083083115</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.82914914914935</v>
+        <v>14.02358358358379</v>
       </c>
       <c r="Z13" t="n">
-        <v>29.43251251251294</v>
+        <v>29.23807807807851</v>
       </c>
     </row>
     <row r="14">
@@ -1631,51 +1631,51 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[0.2255067007601692, 14.752657887194403]</t>
+          <t>[0.0047858739893857916, 14.973378713965186]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.04357524625438658</v>
+        <v>0.04985980450459904</v>
       </c>
       <c r="O14" t="n">
-        <v>0.04357524625438658</v>
+        <v>0.04985980450459904</v>
       </c>
       <c r="P14" t="n">
         <v>0.6352369529781168</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.8679475199106932, 2.1384214258669267]</t>
+          <t>[-0.6037895790683088, 1.8742634850245423]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.3991936554758577</v>
+        <v>0.3073037347147598</v>
       </c>
       <c r="S14" t="n">
-        <v>0.3991936554758577</v>
+        <v>0.3073037347147598</v>
       </c>
       <c r="T14" t="n">
         <v>8.887485933108557</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[5.0212774167757255, 12.75369444944139]</t>
+          <t>[5.022080539080164, 12.75289132713695]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>3.1191459912705e-05</v>
+        <v>3.109360662567617e-05</v>
       </c>
       <c r="W14" t="n">
-        <v>3.1191459912705e-05</v>
+        <v>3.109360662567617e-05</v>
       </c>
       <c r="X14" t="n">
         <v>21.82526526526559</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.01653653653677</v>
+        <v>17.03731731731757</v>
       </c>
       <c r="Z14" t="n">
-        <v>27.6339939939944</v>
+        <v>26.61321321321361</v>
       </c>
     </row>
     <row r="15">
@@ -1717,51 +1717,51 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[0.08636545017252928, 15.207623185822566]</t>
+          <t>[-0.04620628388539494, 15.34019491988049]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.047546395746487</v>
+        <v>0.05133355086068292</v>
       </c>
       <c r="O15" t="n">
-        <v>0.047546395746487</v>
+        <v>0.05133355086068292</v>
       </c>
       <c r="P15" t="n">
         <v>0.3333421634439624</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-1.0943686120613094, 1.7610529389492342]</t>
+          <t>[-1.1446844103170015, 1.8113687372049263]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.6404453457638981</v>
+        <v>0.6518363024124461</v>
       </c>
       <c r="S15" t="n">
-        <v>0.6404453457638981</v>
+        <v>0.6518363024124461</v>
       </c>
       <c r="T15" t="n">
         <v>9.961915704837946</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[5.783517337109636, 14.140314072566255]</t>
+          <t>[5.781237059362773, 14.142594350313118]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1.773648006309081e-05</v>
+        <v>1.789034342114526e-05</v>
       </c>
       <c r="W15" t="n">
-        <v>1.773648006309081e-05</v>
+        <v>1.789034342114526e-05</v>
       </c>
       <c r="X15" t="n">
         <v>22.99187187187221</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.47479479479505</v>
+        <v>17.28036036036061</v>
       </c>
       <c r="Z15" t="n">
-        <v>28.50894894894937</v>
+        <v>28.7033833833838</v>
       </c>
     </row>
   </sheetData>
